--- a/medicine/Mort/Décès_en_1975/Décès_en_1975.xlsx
+++ b/medicine/Mort/Décès_en_1975/Décès_en_1975.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1975</t>
+          <t>Décès_en_1975</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1975</t>
+          <t>Décès_en_1975</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Ethel Ronzoni Bishop, biochimiste américaine (° 21 août 1890).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ethel Ronzoni Bishop, biochimiste américaine (° 21 août 1890).
 Giovanni Borgonovo, peintre italien (° 26 juin 1881).
 Laure Bruni, peintre française (° 28 janvier 1886).
 Eustachio Catalano, peintre italien (° 1893).
@@ -537,9 +554,43 @@
 Victor Darbefeuille, peintre français (° 1886).
 Grégoire Nicolas Finez, peintre français (° 30 octobre 1884).
 Paulette Jacquier, résistante française (° 1918).
-João Rebelo, coureur cycliste portugais (° 31 janvier 1920).
-Janvier
-1er janvier :
+João Rebelo, coureur cycliste portugais (° 31 janvier 1920).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1975</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1er janvier :
 Pedro Caldentey, footballeur espagnol (° 2 septembre 1928).
 Alice Halicka, peintre franco-polonaise (° 20 décembre 1894).
 2 janvier : Amanda Labarca, pédagogue et féministe chilienne (° 5 décembre 1886).
@@ -554,9 +605,43 @@
 13 janvier : Charles Jooris, footballeur belge (° 15 octobre 1900).
 23 janvier : René Fleury, coureur cycliste français (° 24 mai 1889).
 30 janvier : Boris Blacher, compositeur allemand (° 6 janvier 1903).
-? janvier : Abdallah Chahine, pianiste et organiste libanais (° 1894).
-Février
-3 février :
+? janvier : Abdallah Chahine, pianiste et organiste libanais (° 1894).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1975</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1975</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3 février :
 Oum Kalsoum, chanteuse, musicienne et actrice égyptienne (° 30 décembre 1898).
 Ernest Sterckx, coureur cycliste belge (° 1er décembre 1922).
 8 février :
@@ -576,9 +661,43 @@
 22 février :
 Kateryna Antonovytch, peintre et professeure d'histoire de l'art russe puis soviétique (° 23 octobre 1884).
 Lionel Tertis, altiste anglais (° 29 décembre 1876).
-24 février : Marcel Grandjany, harpiste et compositeur franco-américain (° 3 septembre 1891).
-Mars
-1er mars : Günther Lüders, acteur et réalisateur allemand (° 5 mars 1905).
+24 février : Marcel Grandjany, harpiste et compositeur franco-américain (° 3 septembre 1891).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1975</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1975</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1er mars : Günther Lüders, acteur et réalisateur allemand (° 5 mars 1905).
 7 mars : Mikhaïl Mikhaïlovitch Bakhtine, historien et théoricien russe de la littérature (° 16 novembre 1895).
 11 mars : Margarita Fischer, actrice américaine (° 12 février 1886).
 12 mars :
@@ -594,9 +713,43 @@
 25 mars : Fayçal ben Abdelaziz Al Saoud, Roi d'Arabie Saoudite (° 1er avril 1906).
 26 mars : Erica von Kager, peintre et illustratrice suisse (° 28 avril 1890).
 27 mars : Arthur Bliss, compositeur britannique (° 2 août 1891).
-29 mars : Louis Morel, peintre et sculpteur français (° 30 novembre 1887).
-Avril
-1er avril :
+29 mars : Louis Morel, peintre et sculpteur français (° 30 novembre 1887).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1975</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1975</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1er avril :
 Berthold Mahn, peintre, dessinateur, lithographe et illustrateur français (° 25 décembre 1881).
 Michel Pelchat, coureur cycliste français (° 11 janvier 1938).
 2 avril : Arnold Brügger, peintre suisse (° 18 octobre 1888).
@@ -609,7 +762,7 @@
 15 avril :
 John Greenwood, compositeur britannique (° 26 juin 1889).
 Charles Journet, cardinal et théologien suisse (° 26 janvier 1891).
-16 avril : Léon Boesinger, footballeur français (° 27 juin 1909)[1].
+16 avril : Léon Boesinger, footballeur français (° 27 juin 1909).
 19 avril : Robert Aron, écrivain français, membre de l'Académie française (° 25 mai 1898).
 25 avril :
 Mike Brant, chanteur israélien (° 1er février 1947).
@@ -619,9 +772,43 @@
 Lucien Fontanarosa, peintre et illustrateur français (° 19 décembre 1912).
 Sisowath Kossamak, reine consort du Cambodge (° 9 avril 1904).
 John B. McKay, pilote américain de North American X-15 (° 8 décembre 1922).
-30 avril : Eugène Paul, peintre, dessinateur, graveur au burin et lithographe expressionniste français (° 2 juillet 1895).
-Mai
-2 mai : Padmaja Naidu, femme politique indienne (° 1900).
+30 avril : Eugène Paul, peintre, dessinateur, graveur au burin et lithographe expressionniste français (° 2 juillet 1895).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1975</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1975</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2 mai : Padmaja Naidu, femme politique indienne (° 1900).
 6 mai :
 József Mindszenty, cardinal hongrois (° 29 mars 1892).
 Fernand Verhaegen, peintre belge (° 27 juillet 1883).
@@ -642,9 +829,43 @@
 24 mai : José Luis Zorrilla de San Martín, sculpteur et peintre espagnol naturalisé uruguayen (° 5 septembre 1891).
 27 mai : Émilien Dufour, peintre et illustrateur français (° 27 novembre 1896).
 30 mai : Michel Simon, acteur français d'origine suisse (° 9 avril 1895).
-31 mai : Harold Gibson, avocat et homme politique fidjien (° vers 1898).
-Juin
-3 juin : Ozzie Nelson, acteur, réalisateur, producteur, scénariste et chef d'orchestre américain (° 20 mars 1906).
+31 mai : Harold Gibson, avocat et homme politique fidjien (° vers 1898).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1975</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1975</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>3 juin : Ozzie Nelson, acteur, réalisateur, producteur, scénariste et chef d'orchestre américain (° 20 mars 1906).
 5 juin :
 Jotine, musicien et poète français (° 18 août 1900).
 Paul Keres, joueur d'échecs estonien (° 7 janvier 1916).
@@ -654,7 +875,7 @@
 9 juin :
 Janina Konarska, peintre et sculptrice polonaise (° 30 avril 1900).
 Gwendolyn Lizarraga, femme d'affaires, militante des droits des femmes et ministre bélizienne (° 11 juillet 1901).
-Tonono, footballeur espagnol (° 25 août 1943)[2].
+Tonono, footballeur espagnol (° 25 août 1943).
 13 juin :
 José María Guido, avocat et homme politique argentin (° 29 août 1910).
 Arturo Tabera Araoz, cardinal espagnol de la curie romaine (° 29 octobre 1903).
@@ -669,9 +890,43 @@
 27 juin : Robert Stolz, compositeur et chef d'orchestre autrichien (° 25 août 1880).
 28 juin : Serge Reding, haltérophile belge (° 23 décembre 1941).
 29 juin : Jerry Verno, acteur anglais (° 26 juillet 1895).
-30 juin : Mitsuharu Kaneko, peintre et poète anti-militariste japonais (° 25 décembre 1895).
-Juillet
-4 juillet : Édouard Lebas, préfet et homme politique français (° 18 novembre 1897).
+30 juin : Mitsuharu Kaneko, peintre et poète anti-militariste japonais (° 25 décembre 1895).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1975</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1975</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>4 juillet : Édouard Lebas, préfet et homme politique français (° 18 novembre 1897).
 6 juillet : Reşat Ekrem Koçu, historien turc (° 1905).
 8 juillet : Stanislas Bober, coureur cycliste français (° 12 mars 1930).
 10 juillet : Achille van Acker, homme politique belge (° 8 avril 1898).
@@ -686,9 +941,43 @@
 31 juillet :
 Ma Bufang, chef militaire chinois (° 1903).
 Samson Flexor, peintre franco-brésilien (° 31 juillet 1907).
-? juillet : Billy Milne, footballeur écossais (° 24 novembre 1895).
-Août
-? août : Laure Bruni, peintre française (° 28 janvier 1886).
+? juillet : Billy Milne, footballeur écossais (° 24 novembre 1895).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1975</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1975</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>? août : Laure Bruni, peintre française (° 28 janvier 1886).
 3 août : Thomas Mouléro Djogbenou, prêtre catholique et premier prêtre du Bénin et de la sous-région ouest africaine (° 1888).
 4 août :
 Benoît Frachon, syndicaliste et homme politique français (° 13 mai 1893).
@@ -711,9 +1000,43 @@
 27 août
 Hailé Sélassié Ier, empereur d'Éthiopie (° 23 juillet 1892).
 Franjo Šoštarić, footballeur international yougoslave (° 1er août 1919).
-29 août : Eamon de Valera, homme politique irlandais (° 18 octobre 1882).
-Septembre
-3 septembre : Dorothy Blackham, peintre irlandaise (° 1er mars 1896).
+29 août : Eamon de Valera, homme politique irlandais (° 18 octobre 1882).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1975</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1975</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>3 septembre : Dorothy Blackham, peintre irlandaise (° 1er mars 1896).
 5 septembre : Inshō Dōmoto, peintre japonais de l'école Nihonga (° 25 décembre 1891).
 10 septembre : Jean-Claude Misac, coureur cycliste français (° 27 octobre 1948).
 12 septembre :
@@ -728,9 +1051,43 @@
 27 septembre :
 Maurice Feltin, cardinal français, archevêque de Paris (° 15 mai 1883).
 Jack Lang, homme politique australien (° 21 décembre 1876).
-30 septembre : Josef Hölzl, juriste et haut fonctionnaire ministériel allemand (° 6 mars 1901).
-Octobre
-1er octobre :
+30 septembre : Josef Hölzl, juriste et haut fonctionnaire ministériel allemand (° 6 mars 1901).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1975</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1975</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1er octobre :
 Nelly van Doesburg, danseuse, pianiste, peintre et artiste d'avant-garde néerlandaise (° 27 juillet 1899).
 Danijel Premerl, footballeur serbe puis yougoslave (° 23 janvier 1904).
 3 octobre :
@@ -758,9 +1115,43 @@
 28 octobre : Georges Carpentier, boxeur français (° 12 janvier 1894).
 30 octobre : Samuel Escrich, footballeur espagnol (° 28 octobre 1907).
 31 octobre : Gazi le Tatar, peintre et poète montmartrois (° vers 1900).
-? octobre :  Gustavo Pittaluga, compositeur, chef d'orchestre et essayiste espagnol (° 8 février 1906).
-Novembre
-1er novembre : Jérôme Louis Rakotomalala, cardinal malgache, archevêque de Tananarive (° 15 juillet 1913).
+? octobre :  Gustavo Pittaluga, compositeur, chef d'orchestre et essayiste espagnol (° 8 février 1906).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1975</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1975</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1er novembre : Jérôme Louis Rakotomalala, cardinal malgache, archevêque de Tananarive (° 15 juillet 1913).
 2 novembre : Pier Paolo Pasolini, écrivain, scénariste et réalisateur italien (° 5 mars 1922).
 3 novembre :
 Tajuddin Ahmad, homme politique bangladais (° 23 juillet 1925).
@@ -779,9 +1170,43 @@
 24 novembre : Serge Charchoune, peintre et poète d'origine russe (° 16 août 1888).
 25 novembre : Anna Mürset, militante suisse (° 25 juillet 1887).
 27 novembre : Salvador Salazar Arrué, écrivain, peintre et diplomate salvadorien (° 22 octobre 1899).
-30 novembre : Fausto Pirandello, peintre italien (° 17 juin 1899).
-Décembre
-3 décembre : Albert Bessler, acteur et metteur en scène allemand (° 15 février 1905).
+30 novembre : Fausto Pirandello, peintre italien (° 17 juin 1899).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1975</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1975</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>3 décembre : Albert Bessler, acteur et metteur en scène allemand (° 15 février 1905).
 4 décembre : Hannah Arendt, philosophe allemande (° 14 novembre 1906).
 5 décembre : Gilbert Louage, peintre français (° 27 novembre 1930).
 7 décembre : Hardie Albright, acteur américain (° 16 décembre 1903).
